--- a/020-内部設計/023-クラス仕様書/013_商品検索/jsp/JSP仕様書_商品検索結果画面.xlsx
+++ b/020-内部設計/023-クラス仕様書/013_商品検索/jsp/JSP仕様書_商品検索結果画面.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0296601-AD11-4DF0-A89D-A6212A29B5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2E8247-6CF0-40F8-A635-B817C79F6F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JSP仕様" sheetId="4" r:id="rId1"/>
@@ -517,47 +517,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品画面で入力した商品名を表示。入力していないときは、何も表示しない。</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンガメン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品画面で入力したメーカ名を表示。入力していないときは、何も表示しない。</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンガメン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品画面で選択したカテゴリ名を表示。すべてを選択したときは、すべてを表示。</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンガメン</t>
@@ -951,6 +910,50 @@
     </rPh>
     <rPh sb="92" eb="94">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品画面で入力した商品名を表示。商品名が未入力のときは、空欄で表示。</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品画面で入力したメーカ名を表示。メーカ名が未入力のときは、空欄で表示。</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1273,9 +1276,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1285,80 +1486,71 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1372,24 +1564,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1408,171 +1582,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,12 +1599,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,9 +1626,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1663,9 +1666,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1698,26 +1701,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1750,26 +1736,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1945,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HZ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17:BD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="14.4"/>
@@ -1955,80 +1924,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:234" ht="15" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="68" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="70" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="68" t="s">
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="70" t="s">
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="58" t="s">
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="56" t="s">
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="58" t="s">
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="55">
+      <c r="AW1" s="88"/>
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="85">
         <v>45909</v>
       </c>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
       <c r="BE1" s="7"/>
       <c r="BF1" s="7"/>
       <c r="BG1" s="7"/>
@@ -2163,68 +2132,68 @@
       <c r="GF1" s="7"/>
     </row>
     <row r="2" spans="1:234" ht="15" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="68" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="58" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="58" t="s">
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="55"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="55"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="85"/>
+      <c r="BD2" s="85"/>
       <c r="BE2" s="7"/>
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
@@ -2549,66 +2518,66 @@
       <c r="GF3" s="7"/>
     </row>
     <row r="4" spans="1:234" ht="15" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="62" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="64"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="93"/>
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="94"/>
       <c r="BE4" s="7"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
@@ -2789,62 +2758,62 @@
       <c r="HZ4" s="7"/>
     </row>
     <row r="5" spans="1:234" ht="15" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="66"/>
-      <c r="AO5" s="66"/>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="66"/>
-      <c r="AW5" s="66"/>
-      <c r="AX5" s="66"/>
-      <c r="AY5" s="66"/>
-      <c r="AZ5" s="66"/>
-      <c r="BA5" s="66"/>
-      <c r="BB5" s="66"/>
-      <c r="BC5" s="66"/>
-      <c r="BD5" s="67"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="96"/>
+      <c r="AK5" s="96"/>
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="96"/>
+      <c r="AO5" s="96"/>
+      <c r="AP5" s="96"/>
+      <c r="AQ5" s="96"/>
+      <c r="AR5" s="96"/>
+      <c r="AS5" s="96"/>
+      <c r="AT5" s="96"/>
+      <c r="AU5" s="96"/>
+      <c r="AV5" s="96"/>
+      <c r="AW5" s="96"/>
+      <c r="AX5" s="96"/>
+      <c r="AY5" s="96"/>
+      <c r="AZ5" s="96"/>
+      <c r="BA5" s="96"/>
+      <c r="BB5" s="96"/>
+      <c r="BC5" s="96"/>
+      <c r="BD5" s="97"/>
       <c r="BE5" s="7"/>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
@@ -3215,74 +3184,74 @@
       <c r="GF6" s="5"/>
     </row>
     <row r="7" spans="1:234" ht="15" customHeight="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="96" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="61" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61" t="s">
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61" t="s">
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="96" t="s">
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AI7" s="97"/>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="97"/>
-      <c r="AN7" s="97"/>
-      <c r="AO7" s="97"/>
-      <c r="AP7" s="97"/>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="97"/>
-      <c r="AT7" s="97"/>
-      <c r="AU7" s="97"/>
-      <c r="AV7" s="97"/>
-      <c r="AW7" s="97"/>
-      <c r="AX7" s="97"/>
-      <c r="AY7" s="97"/>
-      <c r="AZ7" s="97"/>
-      <c r="BA7" s="97"/>
-      <c r="BB7" s="97"/>
-      <c r="BC7" s="97"/>
-      <c r="BD7" s="97"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
       <c r="BE7" s="7"/>
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
@@ -3417,62 +3386,62 @@
       <c r="GF7" s="7"/>
     </row>
     <row r="8" spans="1:234" ht="15" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="99"/>
-      <c r="AJ8" s="99"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="99"/>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="99"/>
-      <c r="AR8" s="99"/>
-      <c r="AS8" s="99"/>
-      <c r="AT8" s="99"/>
-      <c r="AU8" s="99"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="99"/>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="99"/>
-      <c r="BB8" s="99"/>
-      <c r="BC8" s="99"/>
-      <c r="BD8" s="99"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="46"/>
       <c r="BE8" s="7"/>
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
@@ -3607,74 +3576,74 @@
       <c r="GF8" s="7"/>
     </row>
     <row r="9" spans="1:234" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="77" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="76" t="s">
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="10" t="s">
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="88" t="s">
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="89"/>
-      <c r="AR9" s="89"/>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="89"/>
-      <c r="AV9" s="89"/>
-      <c r="AW9" s="89"/>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="89"/>
-      <c r="BA9" s="89"/>
-      <c r="BB9" s="89"/>
-      <c r="BC9" s="89"/>
-      <c r="BD9" s="89"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="64"/>
+      <c r="AZ9" s="64"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="64"/>
       <c r="BE9" s="8"/>
       <c r="BF9" s="8"/>
       <c r="BG9" s="8"/>
@@ -3809,74 +3778,74 @@
       <c r="GF9" s="8"/>
     </row>
     <row r="10" spans="1:234" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="77" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="76" t="s">
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="10" t="s">
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="88" t="s">
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="89"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="89"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="64"/>
+      <c r="BC10" s="64"/>
+      <c r="BD10" s="64"/>
       <c r="BE10" s="8"/>
       <c r="BF10" s="8"/>
       <c r="BG10" s="8"/>
@@ -4011,74 +3980,74 @@
       <c r="GF10" s="8"/>
     </row>
     <row r="11" spans="1:234" ht="15" customHeight="1">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="73" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="76" t="s">
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="10" t="s">
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="88" t="s">
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="89"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="89"/>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
-      <c r="BC11" s="89"/>
-      <c r="BD11" s="89"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
       <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
@@ -4213,74 +4182,74 @@
       <c r="GF11" s="7"/>
     </row>
     <row r="12" spans="1:234" ht="15" customHeight="1">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="73" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="76" t="s">
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="10" t="s">
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="88" t="s">
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="89"/>
-      <c r="AO12" s="89"/>
-      <c r="AP12" s="89"/>
-      <c r="AQ12" s="89"/>
-      <c r="AR12" s="89"/>
-      <c r="AS12" s="89"/>
-      <c r="AT12" s="89"/>
-      <c r="AU12" s="89"/>
-      <c r="AV12" s="89"/>
-      <c r="AW12" s="89"/>
-      <c r="AX12" s="89"/>
-      <c r="AY12" s="89"/>
-      <c r="AZ12" s="89"/>
-      <c r="BA12" s="89"/>
-      <c r="BB12" s="89"/>
-      <c r="BC12" s="89"/>
-      <c r="BD12" s="89"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="64"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="64"/>
+      <c r="AZ12" s="64"/>
+      <c r="BA12" s="64"/>
+      <c r="BB12" s="64"/>
+      <c r="BC12" s="64"/>
+      <c r="BD12" s="64"/>
       <c r="BE12" s="7"/>
       <c r="BF12" s="7"/>
       <c r="BG12" s="7"/>
@@ -4415,74 +4384,74 @@
       <c r="GF12" s="7"/>
     </row>
     <row r="13" spans="1:234" ht="15" customHeight="1">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="73" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="76" t="s">
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="10" t="s">
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="88" t="s">
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI13" s="89"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="89"/>
-      <c r="AN13" s="89"/>
-      <c r="AO13" s="89"/>
-      <c r="AP13" s="89"/>
-      <c r="AQ13" s="89"/>
-      <c r="AR13" s="89"/>
-      <c r="AS13" s="89"/>
-      <c r="AT13" s="89"/>
-      <c r="AU13" s="89"/>
-      <c r="AV13" s="89"/>
-      <c r="AW13" s="89"/>
-      <c r="AX13" s="89"/>
-      <c r="AY13" s="89"/>
-      <c r="AZ13" s="89"/>
-      <c r="BA13" s="89"/>
-      <c r="BB13" s="89"/>
-      <c r="BC13" s="89"/>
-      <c r="BD13" s="89"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="64"/>
+      <c r="AZ13" s="64"/>
+      <c r="BA13" s="64"/>
+      <c r="BB13" s="64"/>
+      <c r="BC13" s="64"/>
+      <c r="BD13" s="64"/>
       <c r="BE13" s="7"/>
       <c r="BF13" s="7"/>
       <c r="BG13" s="7"/>
@@ -4617,74 +4586,74 @@
       <c r="GF13" s="7"/>
     </row>
     <row r="14" spans="1:234" ht="15" customHeight="1">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="73" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="76" t="s">
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="10" t="s">
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="88" t="s">
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="89"/>
-      <c r="AN14" s="89"/>
-      <c r="AO14" s="89"/>
-      <c r="AP14" s="89"/>
-      <c r="AQ14" s="89"/>
-      <c r="AR14" s="89"/>
-      <c r="AS14" s="89"/>
-      <c r="AT14" s="89"/>
-      <c r="AU14" s="89"/>
-      <c r="AV14" s="89"/>
-      <c r="AW14" s="89"/>
-      <c r="AX14" s="89"/>
-      <c r="AY14" s="89"/>
-      <c r="AZ14" s="89"/>
-      <c r="BA14" s="89"/>
-      <c r="BB14" s="89"/>
-      <c r="BC14" s="89"/>
-      <c r="BD14" s="89"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
       <c r="BE14" s="7"/>
       <c r="BF14" s="7"/>
       <c r="BG14" s="7"/>
@@ -4819,74 +4788,74 @@
       <c r="GF14" s="7"/>
     </row>
     <row r="15" spans="1:234" ht="15" customHeight="1">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="73" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="76" t="s">
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="10" t="s">
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="88" t="s">
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="89"/>
-      <c r="AP15" s="89"/>
-      <c r="AQ15" s="89"/>
-      <c r="AR15" s="89"/>
-      <c r="AS15" s="89"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="89"/>
-      <c r="AX15" s="89"/>
-      <c r="AY15" s="89"/>
-      <c r="AZ15" s="89"/>
-      <c r="BA15" s="89"/>
-      <c r="BB15" s="89"/>
-      <c r="BC15" s="89"/>
-      <c r="BD15" s="89"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="64"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="64"/>
+      <c r="AX15" s="64"/>
+      <c r="AY15" s="64"/>
+      <c r="AZ15" s="64"/>
+      <c r="BA15" s="64"/>
+      <c r="BB15" s="64"/>
+      <c r="BC15" s="64"/>
+      <c r="BD15" s="64"/>
       <c r="BE15" s="7"/>
       <c r="BF15" s="7"/>
       <c r="BG15" s="7"/>
@@ -5021,74 +4990,74 @@
       <c r="GF15" s="7"/>
     </row>
     <row r="16" spans="1:234" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="74" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="10" t="s">
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="18"/>
-      <c r="AS16" s="18"/>
-      <c r="AT16" s="18"/>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="18"/>
-      <c r="AW16" s="18"/>
-      <c r="AX16" s="18"/>
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="18"/>
-      <c r="BA16" s="18"/>
-      <c r="BB16" s="18"/>
-      <c r="BC16" s="18"/>
-      <c r="BD16" s="18"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="58"/>
+      <c r="AO16" s="58"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="58"/>
+      <c r="AS16" s="58"/>
+      <c r="AT16" s="58"/>
+      <c r="AU16" s="58"/>
+      <c r="AV16" s="58"/>
+      <c r="AW16" s="58"/>
+      <c r="AX16" s="58"/>
+      <c r="AY16" s="58"/>
+      <c r="AZ16" s="58"/>
+      <c r="BA16" s="58"/>
+      <c r="BB16" s="58"/>
+      <c r="BC16" s="58"/>
+      <c r="BD16" s="58"/>
       <c r="BE16" s="8"/>
       <c r="BF16" s="8"/>
       <c r="BG16" s="8"/>
@@ -5223,74 +5192,74 @@
       <c r="GF16" s="8"/>
     </row>
     <row r="17" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="74" t="s">
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="10" t="s">
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="18"/>
-      <c r="AT17" s="18"/>
-      <c r="AU17" s="18"/>
-      <c r="AV17" s="18"/>
-      <c r="AW17" s="18"/>
-      <c r="AX17" s="18"/>
-      <c r="AY17" s="18"/>
-      <c r="AZ17" s="18"/>
-      <c r="BA17" s="18"/>
-      <c r="BB17" s="18"/>
-      <c r="BC17" s="18"/>
-      <c r="BD17" s="18"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="67"/>
+      <c r="AH17" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="58"/>
+      <c r="AS17" s="58"/>
+      <c r="AT17" s="58"/>
+      <c r="AU17" s="58"/>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="58"/>
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="58"/>
+      <c r="BA17" s="58"/>
+      <c r="BB17" s="58"/>
+      <c r="BC17" s="58"/>
+      <c r="BD17" s="58"/>
       <c r="BE17" s="8"/>
       <c r="BF17" s="8"/>
       <c r="BG17" s="8"/>
@@ -5425,74 +5394,74 @@
       <c r="GF17" s="8"/>
     </row>
     <row r="18" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="74" t="s">
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="75"/>
-      <c r="X18" s="75"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="10" t="s">
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="18"/>
-      <c r="AT18" s="18"/>
-      <c r="AU18" s="18"/>
-      <c r="AV18" s="18"/>
-      <c r="AW18" s="18"/>
-      <c r="AX18" s="18"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="18"/>
-      <c r="BB18" s="18"/>
-      <c r="BC18" s="18"/>
-      <c r="BD18" s="18"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="58"/>
+      <c r="AL18" s="58"/>
+      <c r="AM18" s="58"/>
+      <c r="AN18" s="58"/>
+      <c r="AO18" s="58"/>
+      <c r="AP18" s="58"/>
+      <c r="AQ18" s="58"/>
+      <c r="AR18" s="58"/>
+      <c r="AS18" s="58"/>
+      <c r="AT18" s="58"/>
+      <c r="AU18" s="58"/>
+      <c r="AV18" s="58"/>
+      <c r="AW18" s="58"/>
+      <c r="AX18" s="58"/>
+      <c r="AY18" s="58"/>
+      <c r="AZ18" s="58"/>
+      <c r="BA18" s="58"/>
+      <c r="BB18" s="58"/>
+      <c r="BC18" s="58"/>
+      <c r="BD18" s="58"/>
       <c r="BE18" s="8"/>
       <c r="BF18" s="8"/>
       <c r="BG18" s="8"/>
@@ -5627,74 +5596,74 @@
       <c r="GF18" s="8"/>
     </row>
     <row r="19" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="74" t="s">
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="U19" s="75"/>
-      <c r="V19" s="75"/>
-      <c r="W19" s="75"/>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="75"/>
-      <c r="Z19" s="10" t="s">
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="18"/>
-      <c r="AT19" s="18"/>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="18"/>
-      <c r="AX19" s="18"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="18"/>
-      <c r="BB19" s="18"/>
-      <c r="BC19" s="18"/>
-      <c r="BD19" s="18"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="58"/>
+      <c r="AS19" s="58"/>
+      <c r="AT19" s="58"/>
+      <c r="AU19" s="58"/>
+      <c r="AV19" s="58"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="58"/>
+      <c r="AZ19" s="58"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="58"/>
+      <c r="BC19" s="58"/>
+      <c r="BD19" s="58"/>
       <c r="BE19" s="8"/>
       <c r="BF19" s="8"/>
       <c r="BG19" s="8"/>
@@ -5829,74 +5798,74 @@
       <c r="GF19" s="8"/>
     </row>
     <row r="20" spans="1:188" ht="15" customHeight="1">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="74" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="10" t="s">
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="17" t="s">
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
-      <c r="AT20" s="18"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18"/>
-      <c r="AW20" s="18"/>
-      <c r="AX20" s="18"/>
-      <c r="AY20" s="18"/>
-      <c r="AZ20" s="18"/>
-      <c r="BA20" s="18"/>
-      <c r="BB20" s="18"/>
-      <c r="BC20" s="18"/>
-      <c r="BD20" s="18"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="58"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="58"/>
+      <c r="AO20" s="58"/>
+      <c r="AP20" s="58"/>
+      <c r="AQ20" s="58"/>
+      <c r="AR20" s="58"/>
+      <c r="AS20" s="58"/>
+      <c r="AT20" s="58"/>
+      <c r="AU20" s="58"/>
+      <c r="AV20" s="58"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="58"/>
+      <c r="AZ20" s="58"/>
+      <c r="BA20" s="58"/>
+      <c r="BB20" s="58"/>
+      <c r="BC20" s="58"/>
+      <c r="BD20" s="58"/>
       <c r="BE20" s="7"/>
       <c r="BF20" s="7"/>
       <c r="BG20" s="7"/>
@@ -6031,74 +6000,74 @@
       <c r="GF20" s="7"/>
     </row>
     <row r="21" spans="1:188" ht="15" customHeight="1">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="11" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="14" t="s">
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="81" t="s">
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="83"/>
-      <c r="AH21" s="88" t="s">
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="69"/>
+      <c r="AD21" s="69"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="89"/>
-      <c r="AO21" s="89"/>
-      <c r="AP21" s="89"/>
-      <c r="AQ21" s="89"/>
-      <c r="AR21" s="89"/>
-      <c r="AS21" s="89"/>
-      <c r="AT21" s="89"/>
-      <c r="AU21" s="89"/>
-      <c r="AV21" s="89"/>
-      <c r="AW21" s="89"/>
-      <c r="AX21" s="89"/>
-      <c r="AY21" s="89"/>
-      <c r="AZ21" s="89"/>
-      <c r="BA21" s="89"/>
-      <c r="BB21" s="89"/>
-      <c r="BC21" s="89"/>
-      <c r="BD21" s="89"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="64"/>
+      <c r="AK21" s="64"/>
+      <c r="AL21" s="64"/>
+      <c r="AM21" s="64"/>
+      <c r="AN21" s="64"/>
+      <c r="AO21" s="64"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="64"/>
+      <c r="AR21" s="64"/>
+      <c r="AS21" s="64"/>
+      <c r="AT21" s="64"/>
+      <c r="AU21" s="64"/>
+      <c r="AV21" s="64"/>
+      <c r="AW21" s="64"/>
+      <c r="AX21" s="64"/>
+      <c r="AY21" s="64"/>
+      <c r="AZ21" s="64"/>
+      <c r="BA21" s="64"/>
+      <c r="BB21" s="64"/>
+      <c r="BC21" s="64"/>
+      <c r="BD21" s="64"/>
       <c r="BE21" s="7"/>
       <c r="BF21" s="7"/>
       <c r="BG21" s="7"/>
@@ -6233,74 +6202,74 @@
       <c r="GF21" s="7"/>
     </row>
     <row r="22" spans="1:188" ht="15" customHeight="1">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="74" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="10" t="s">
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="18"/>
-      <c r="AS22" s="18"/>
-      <c r="AT22" s="18"/>
-      <c r="AU22" s="18"/>
-      <c r="AV22" s="18"/>
-      <c r="AW22" s="18"/>
-      <c r="AX22" s="18"/>
-      <c r="AY22" s="18"/>
-      <c r="AZ22" s="18"/>
-      <c r="BA22" s="18"/>
-      <c r="BB22" s="18"/>
-      <c r="BC22" s="18"/>
-      <c r="BD22" s="18"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="58"/>
+      <c r="AP22" s="58"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="58"/>
+      <c r="AS22" s="58"/>
+      <c r="AT22" s="58"/>
+      <c r="AU22" s="58"/>
+      <c r="AV22" s="58"/>
+      <c r="AW22" s="58"/>
+      <c r="AX22" s="58"/>
+      <c r="AY22" s="58"/>
+      <c r="AZ22" s="58"/>
+      <c r="BA22" s="58"/>
+      <c r="BB22" s="58"/>
+      <c r="BC22" s="58"/>
+      <c r="BD22" s="58"/>
       <c r="BE22" s="7"/>
       <c r="BF22" s="7"/>
       <c r="BG22" s="7"/>
@@ -6435,144 +6404,144 @@
       <c r="GF22" s="7"/>
     </row>
     <row r="23" spans="1:188">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="78" t="s">
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="14" t="s">
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="81" t="s">
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
-      <c r="AC23" s="82"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="83"/>
-      <c r="AH23" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="18"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="18"/>
-      <c r="AS23" s="18"/>
-      <c r="AT23" s="18"/>
-      <c r="AU23" s="18"/>
-      <c r="AV23" s="18"/>
-      <c r="AW23" s="18"/>
-      <c r="AX23" s="18"/>
-      <c r="AY23" s="18"/>
-      <c r="AZ23" s="18"/>
-      <c r="BA23" s="18"/>
-      <c r="BB23" s="18"/>
-      <c r="BC23" s="18"/>
-      <c r="BD23" s="18"/>
+      <c r="AA23" s="69"/>
+      <c r="AB23" s="69"/>
+      <c r="AC23" s="69"/>
+      <c r="AD23" s="69"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="69"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="58"/>
+      <c r="AL23" s="58"/>
+      <c r="AM23" s="58"/>
+      <c r="AN23" s="58"/>
+      <c r="AO23" s="58"/>
+      <c r="AP23" s="58"/>
+      <c r="AQ23" s="58"/>
+      <c r="AR23" s="58"/>
+      <c r="AS23" s="58"/>
+      <c r="AT23" s="58"/>
+      <c r="AU23" s="58"/>
+      <c r="AV23" s="58"/>
+      <c r="AW23" s="58"/>
+      <c r="AX23" s="58"/>
+      <c r="AY23" s="58"/>
+      <c r="AZ23" s="58"/>
+      <c r="BA23" s="58"/>
+      <c r="BB23" s="58"/>
+      <c r="BC23" s="58"/>
+      <c r="BD23" s="58"/>
     </row>
     <row r="24" spans="1:188" ht="15" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="49" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="113"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="113"/>
+      <c r="AF24" s="113"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA24" s="111"/>
-      <c r="AB24" s="111"/>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="111"/>
-      <c r="AE24" s="111"/>
-      <c r="AF24" s="111"/>
-      <c r="AG24" s="112"/>
-      <c r="AH24" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="28"/>
-      <c r="BA24" s="28"/>
-      <c r="BB24" s="28"/>
-      <c r="BC24" s="28"/>
-      <c r="BD24" s="28"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
       <c r="BE24" s="7"/>
       <c r="BF24" s="7"/>
       <c r="BG24" s="7"/>
@@ -6707,62 +6676,62 @@
       <c r="GF24" s="7"/>
     </row>
     <row r="25" spans="1:188" ht="15" customHeight="1">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="114"/>
-      <c r="AB25" s="114"/>
-      <c r="AC25" s="114"/>
-      <c r="AD25" s="114"/>
-      <c r="AE25" s="114"/>
-      <c r="AF25" s="114"/>
-      <c r="AG25" s="115"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="44"/>
-      <c r="AL25" s="44"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="44"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="115"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="116"/>
+      <c r="AC25" s="116"/>
+      <c r="AD25" s="116"/>
+      <c r="AE25" s="116"/>
+      <c r="AF25" s="116"/>
+      <c r="AG25" s="117"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="21"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="21"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="21"/>
+      <c r="AT25" s="21"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="21"/>
+      <c r="AW25" s="21"/>
+      <c r="AX25" s="21"/>
+      <c r="AY25" s="21"/>
+      <c r="AZ25" s="21"/>
+      <c r="BA25" s="21"/>
+      <c r="BB25" s="21"/>
+      <c r="BC25" s="21"/>
+      <c r="BD25" s="21"/>
       <c r="BE25" s="7"/>
       <c r="BF25" s="7"/>
       <c r="BG25" s="7"/>
@@ -6897,74 +6866,74 @@
       <c r="GF25" s="7"/>
     </row>
     <row r="26" spans="1:188" ht="15" customHeight="1">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="11" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="14" t="s">
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="81" t="s">
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="82"/>
-      <c r="AC26" s="82"/>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="82"/>
-      <c r="AG26" s="83"/>
-      <c r="AH26" s="88" t="s">
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="69"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="70"/>
+      <c r="AH26" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI26" s="89"/>
-      <c r="AJ26" s="89"/>
-      <c r="AK26" s="89"/>
-      <c r="AL26" s="89"/>
-      <c r="AM26" s="89"/>
-      <c r="AN26" s="89"/>
-      <c r="AO26" s="89"/>
-      <c r="AP26" s="89"/>
-      <c r="AQ26" s="89"/>
-      <c r="AR26" s="89"/>
-      <c r="AS26" s="89"/>
-      <c r="AT26" s="89"/>
-      <c r="AU26" s="89"/>
-      <c r="AV26" s="89"/>
-      <c r="AW26" s="89"/>
-      <c r="AX26" s="89"/>
-      <c r="AY26" s="89"/>
-      <c r="AZ26" s="89"/>
-      <c r="BA26" s="89"/>
-      <c r="BB26" s="89"/>
-      <c r="BC26" s="89"/>
-      <c r="BD26" s="89"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="64"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="64"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
+      <c r="AP26" s="64"/>
+      <c r="AQ26" s="64"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="64"/>
+      <c r="AX26" s="64"/>
+      <c r="AY26" s="64"/>
+      <c r="AZ26" s="64"/>
+      <c r="BA26" s="64"/>
+      <c r="BB26" s="64"/>
+      <c r="BC26" s="64"/>
+      <c r="BD26" s="64"/>
       <c r="BE26" s="7"/>
       <c r="BF26" s="7"/>
       <c r="BG26" s="7"/>
@@ -7099,74 +7068,74 @@
       <c r="GF26" s="7"/>
     </row>
     <row r="27" spans="1:188" ht="15" customHeight="1">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="73" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="76" t="s">
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="U27" s="76"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="10" t="s">
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="88" t="s">
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="67"/>
+      <c r="AD27" s="67"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI27" s="89"/>
-      <c r="AJ27" s="89"/>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="89"/>
-      <c r="AM27" s="89"/>
-      <c r="AN27" s="89"/>
-      <c r="AO27" s="89"/>
-      <c r="AP27" s="89"/>
-      <c r="AQ27" s="89"/>
-      <c r="AR27" s="89"/>
-      <c r="AS27" s="89"/>
-      <c r="AT27" s="89"/>
-      <c r="AU27" s="89"/>
-      <c r="AV27" s="89"/>
-      <c r="AW27" s="89"/>
-      <c r="AX27" s="89"/>
-      <c r="AY27" s="89"/>
-      <c r="AZ27" s="89"/>
-      <c r="BA27" s="89"/>
-      <c r="BB27" s="89"/>
-      <c r="BC27" s="89"/>
-      <c r="BD27" s="89"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="64"/>
+      <c r="AZ27" s="64"/>
+      <c r="BA27" s="64"/>
+      <c r="BB27" s="64"/>
+      <c r="BC27" s="64"/>
+      <c r="BD27" s="64"/>
       <c r="BE27" s="7"/>
       <c r="BF27" s="7"/>
       <c r="BG27" s="7"/>
@@ -7301,74 +7270,74 @@
       <c r="GF27" s="7"/>
     </row>
     <row r="28" spans="1:188" ht="15" customHeight="1">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="73" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="76" t="s">
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="10" t="s">
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="88" t="s">
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI28" s="89"/>
-      <c r="AJ28" s="89"/>
-      <c r="AK28" s="89"/>
-      <c r="AL28" s="89"/>
-      <c r="AM28" s="89"/>
-      <c r="AN28" s="89"/>
-      <c r="AO28" s="89"/>
-      <c r="AP28" s="89"/>
-      <c r="AQ28" s="89"/>
-      <c r="AR28" s="89"/>
-      <c r="AS28" s="89"/>
-      <c r="AT28" s="89"/>
-      <c r="AU28" s="89"/>
-      <c r="AV28" s="89"/>
-      <c r="AW28" s="89"/>
-      <c r="AX28" s="89"/>
-      <c r="AY28" s="89"/>
-      <c r="AZ28" s="89"/>
-      <c r="BA28" s="89"/>
-      <c r="BB28" s="89"/>
-      <c r="BC28" s="89"/>
-      <c r="BD28" s="89"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="64"/>
       <c r="BE28" s="7"/>
       <c r="BF28" s="7"/>
       <c r="BG28" s="7"/>
@@ -7503,74 +7472,74 @@
       <c r="GF28" s="7"/>
     </row>
     <row r="29" spans="1:188" ht="15" customHeight="1">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="91"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="87" t="s">
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="76" t="s">
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="76"/>
-      <c r="V29" s="76"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="10" t="s">
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="88" t="s">
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="67"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AI29" s="89"/>
-      <c r="AJ29" s="89"/>
-      <c r="AK29" s="89"/>
-      <c r="AL29" s="89"/>
-      <c r="AM29" s="89"/>
-      <c r="AN29" s="89"/>
-      <c r="AO29" s="89"/>
-      <c r="AP29" s="89"/>
-      <c r="AQ29" s="89"/>
-      <c r="AR29" s="89"/>
-      <c r="AS29" s="89"/>
-      <c r="AT29" s="89"/>
-      <c r="AU29" s="89"/>
-      <c r="AV29" s="89"/>
-      <c r="AW29" s="89"/>
-      <c r="AX29" s="89"/>
-      <c r="AY29" s="89"/>
-      <c r="AZ29" s="89"/>
-      <c r="BA29" s="89"/>
-      <c r="BB29" s="89"/>
-      <c r="BC29" s="89"/>
-      <c r="BD29" s="89"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="64"/>
+      <c r="AX29" s="64"/>
+      <c r="AY29" s="64"/>
+      <c r="AZ29" s="64"/>
+      <c r="BA29" s="64"/>
+      <c r="BB29" s="64"/>
+      <c r="BC29" s="64"/>
+      <c r="BD29" s="64"/>
       <c r="BE29" s="7"/>
       <c r="BF29" s="7"/>
       <c r="BG29" s="7"/>
@@ -7705,74 +7674,74 @@
       <c r="GF29" s="7"/>
     </row>
     <row r="30" spans="1:188" ht="15" customHeight="1">
-      <c r="A30" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="102" t="s">
+      <c r="A30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="49" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="33" t="s">
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="27" t="s">
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI30" s="40"/>
-      <c r="AJ30" s="40"/>
-      <c r="AK30" s="40"/>
-      <c r="AL30" s="40"/>
-      <c r="AM30" s="40"/>
-      <c r="AN30" s="40"/>
-      <c r="AO30" s="40"/>
-      <c r="AP30" s="40"/>
-      <c r="AQ30" s="40"/>
-      <c r="AR30" s="40"/>
-      <c r="AS30" s="40"/>
-      <c r="AT30" s="40"/>
-      <c r="AU30" s="40"/>
-      <c r="AV30" s="40"/>
-      <c r="AW30" s="40"/>
-      <c r="AX30" s="40"/>
-      <c r="AY30" s="40"/>
-      <c r="AZ30" s="40"/>
-      <c r="BA30" s="40"/>
-      <c r="BB30" s="40"/>
-      <c r="BC30" s="40"/>
-      <c r="BD30" s="40"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI30" s="103"/>
+      <c r="AJ30" s="103"/>
+      <c r="AK30" s="103"/>
+      <c r="AL30" s="103"/>
+      <c r="AM30" s="103"/>
+      <c r="AN30" s="103"/>
+      <c r="AO30" s="103"/>
+      <c r="AP30" s="103"/>
+      <c r="AQ30" s="103"/>
+      <c r="AR30" s="103"/>
+      <c r="AS30" s="103"/>
+      <c r="AT30" s="103"/>
+      <c r="AU30" s="103"/>
+      <c r="AV30" s="103"/>
+      <c r="AW30" s="103"/>
+      <c r="AX30" s="103"/>
+      <c r="AY30" s="103"/>
+      <c r="AZ30" s="103"/>
+      <c r="BA30" s="103"/>
+      <c r="BB30" s="103"/>
+      <c r="BC30" s="103"/>
+      <c r="BD30" s="103"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -7907,62 +7876,62 @@
       <c r="GF30" s="7"/>
     </row>
     <row r="31" spans="1:188" ht="15" customHeight="1">
-      <c r="A31" s="108"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="42"/>
-      <c r="AU31" s="42"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="42"/>
-      <c r="BC31" s="42"/>
-      <c r="BD31" s="42"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="104"/>
+      <c r="AI31" s="105"/>
+      <c r="AJ31" s="105"/>
+      <c r="AK31" s="105"/>
+      <c r="AL31" s="105"/>
+      <c r="AM31" s="105"/>
+      <c r="AN31" s="105"/>
+      <c r="AO31" s="105"/>
+      <c r="AP31" s="105"/>
+      <c r="AQ31" s="105"/>
+      <c r="AR31" s="105"/>
+      <c r="AS31" s="105"/>
+      <c r="AT31" s="105"/>
+      <c r="AU31" s="105"/>
+      <c r="AV31" s="105"/>
+      <c r="AW31" s="105"/>
+      <c r="AX31" s="105"/>
+      <c r="AY31" s="105"/>
+      <c r="AZ31" s="105"/>
+      <c r="BA31" s="105"/>
+      <c r="BB31" s="105"/>
+      <c r="BC31" s="105"/>
+      <c r="BD31" s="105"/>
       <c r="BE31" s="7"/>
       <c r="BF31" s="7"/>
       <c r="BG31" s="7"/>
@@ -8097,74 +8066,74 @@
       <c r="GF31" s="7"/>
     </row>
     <row r="32" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="72" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="10" t="s">
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="17" t="s">
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="AI32" s="18"/>
-      <c r="AJ32" s="18"/>
-      <c r="AK32" s="18"/>
-      <c r="AL32" s="18"/>
-      <c r="AM32" s="18"/>
-      <c r="AN32" s="18"/>
-      <c r="AO32" s="18"/>
-      <c r="AP32" s="18"/>
-      <c r="AQ32" s="18"/>
-      <c r="AR32" s="18"/>
-      <c r="AS32" s="18"/>
-      <c r="AT32" s="18"/>
-      <c r="AU32" s="18"/>
-      <c r="AV32" s="18"/>
-      <c r="AW32" s="18"/>
-      <c r="AX32" s="18"/>
-      <c r="AY32" s="18"/>
-      <c r="AZ32" s="18"/>
-      <c r="BA32" s="18"/>
-      <c r="BB32" s="18"/>
-      <c r="BC32" s="18"/>
-      <c r="BD32" s="18"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="58"/>
+      <c r="AK32" s="58"/>
+      <c r="AL32" s="58"/>
+      <c r="AM32" s="58"/>
+      <c r="AN32" s="58"/>
+      <c r="AO32" s="58"/>
+      <c r="AP32" s="58"/>
+      <c r="AQ32" s="58"/>
+      <c r="AR32" s="58"/>
+      <c r="AS32" s="58"/>
+      <c r="AT32" s="58"/>
+      <c r="AU32" s="58"/>
+      <c r="AV32" s="58"/>
+      <c r="AW32" s="58"/>
+      <c r="AX32" s="58"/>
+      <c r="AY32" s="58"/>
+      <c r="AZ32" s="58"/>
+      <c r="BA32" s="58"/>
+      <c r="BB32" s="58"/>
+      <c r="BC32" s="58"/>
+      <c r="BD32" s="58"/>
       <c r="BE32" s="8"/>
       <c r="BF32" s="8"/>
       <c r="BG32" s="8"/>
@@ -8299,74 +8268,74 @@
       <c r="GF32" s="8"/>
     </row>
     <row r="33" spans="1:188" ht="15" customHeight="1">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="72" t="s">
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="10" t="s">
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="17" t="s">
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="67"/>
+      <c r="AD33" s="67"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="67"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="AI33" s="18"/>
-      <c r="AJ33" s="18"/>
-      <c r="AK33" s="18"/>
-      <c r="AL33" s="18"/>
-      <c r="AM33" s="18"/>
-      <c r="AN33" s="18"/>
-      <c r="AO33" s="18"/>
-      <c r="AP33" s="18"/>
-      <c r="AQ33" s="18"/>
-      <c r="AR33" s="18"/>
-      <c r="AS33" s="18"/>
-      <c r="AT33" s="18"/>
-      <c r="AU33" s="18"/>
-      <c r="AV33" s="18"/>
-      <c r="AW33" s="18"/>
-      <c r="AX33" s="18"/>
-      <c r="AY33" s="18"/>
-      <c r="AZ33" s="18"/>
-      <c r="BA33" s="18"/>
-      <c r="BB33" s="18"/>
-      <c r="BC33" s="18"/>
-      <c r="BD33" s="18"/>
+      <c r="AI33" s="58"/>
+      <c r="AJ33" s="58"/>
+      <c r="AK33" s="58"/>
+      <c r="AL33" s="58"/>
+      <c r="AM33" s="58"/>
+      <c r="AN33" s="58"/>
+      <c r="AO33" s="58"/>
+      <c r="AP33" s="58"/>
+      <c r="AQ33" s="58"/>
+      <c r="AR33" s="58"/>
+      <c r="AS33" s="58"/>
+      <c r="AT33" s="58"/>
+      <c r="AU33" s="58"/>
+      <c r="AV33" s="58"/>
+      <c r="AW33" s="58"/>
+      <c r="AX33" s="58"/>
+      <c r="AY33" s="58"/>
+      <c r="AZ33" s="58"/>
+      <c r="BA33" s="58"/>
+      <c r="BB33" s="58"/>
+      <c r="BC33" s="58"/>
+      <c r="BD33" s="58"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -8501,74 +8470,74 @@
       <c r="GF33" s="7"/>
     </row>
     <row r="34" spans="1:188" ht="13.5" customHeight="1">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="14" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="72" t="s">
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="10" t="s">
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="17" t="s">
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="67"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="18"/>
-      <c r="AO34" s="18"/>
-      <c r="AP34" s="18"/>
-      <c r="AQ34" s="18"/>
-      <c r="AR34" s="18"/>
-      <c r="AS34" s="18"/>
-      <c r="AT34" s="18"/>
-      <c r="AU34" s="18"/>
-      <c r="AV34" s="18"/>
-      <c r="AW34" s="18"/>
-      <c r="AX34" s="18"/>
-      <c r="AY34" s="18"/>
-      <c r="AZ34" s="18"/>
-      <c r="BA34" s="18"/>
-      <c r="BB34" s="18"/>
-      <c r="BC34" s="18"/>
-      <c r="BD34" s="18"/>
+      <c r="AI34" s="58"/>
+      <c r="AJ34" s="58"/>
+      <c r="AK34" s="58"/>
+      <c r="AL34" s="58"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="58"/>
+      <c r="AO34" s="58"/>
+      <c r="AP34" s="58"/>
+      <c r="AQ34" s="58"/>
+      <c r="AR34" s="58"/>
+      <c r="AS34" s="58"/>
+      <c r="AT34" s="58"/>
+      <c r="AU34" s="58"/>
+      <c r="AV34" s="58"/>
+      <c r="AW34" s="58"/>
+      <c r="AX34" s="58"/>
+      <c r="AY34" s="58"/>
+      <c r="AZ34" s="58"/>
+      <c r="BA34" s="58"/>
+      <c r="BB34" s="58"/>
+      <c r="BC34" s="58"/>
+      <c r="BD34" s="58"/>
       <c r="BE34" s="7"/>
       <c r="BF34" s="7"/>
       <c r="BG34" s="7"/>
@@ -8703,705 +8672,850 @@
       <c r="GF34" s="7"/>
     </row>
     <row r="35" spans="1:188" ht="14.4" customHeight="1">
-      <c r="A35" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="33" t="s">
+      <c r="A35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="33" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="33" t="s">
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="27" t="s">
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI35" s="24"/>
-      <c r="AJ35" s="24"/>
-      <c r="AK35" s="24"/>
-      <c r="AL35" s="24"/>
-      <c r="AM35" s="24"/>
-      <c r="AN35" s="24"/>
-      <c r="AO35" s="24"/>
-      <c r="AP35" s="24"/>
-      <c r="AQ35" s="24"/>
-      <c r="AR35" s="24"/>
-      <c r="AS35" s="24"/>
-      <c r="AT35" s="24"/>
-      <c r="AU35" s="24"/>
-      <c r="AV35" s="24"/>
-      <c r="AW35" s="24"/>
-      <c r="AX35" s="24"/>
-      <c r="AY35" s="24"/>
-      <c r="AZ35" s="24"/>
-      <c r="BA35" s="24"/>
-      <c r="BB35" s="24"/>
-      <c r="BC35" s="24"/>
-      <c r="BD35" s="24"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
+      <c r="AT35" s="36"/>
+      <c r="AU35" s="36"/>
+      <c r="AV35" s="36"/>
+      <c r="AW35" s="36"/>
+      <c r="AX35" s="36"/>
+      <c r="AY35" s="36"/>
+      <c r="AZ35" s="36"/>
+      <c r="BA35" s="36"/>
+      <c r="BB35" s="36"/>
+      <c r="BC35" s="36"/>
+      <c r="BD35" s="36"/>
     </row>
     <row r="36" spans="1:188">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="26"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26"/>
-      <c r="AU36" s="26"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="26"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="26"/>
-      <c r="BC36" s="26"/>
-      <c r="BD36" s="26"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AP36" s="37"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
     </row>
     <row r="37" spans="1:188">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="26"/>
-      <c r="AN37" s="26"/>
-      <c r="AO37" s="26"/>
-      <c r="AP37" s="26"/>
-      <c r="AQ37" s="26"/>
-      <c r="AR37" s="26"/>
-      <c r="AS37" s="26"/>
-      <c r="AT37" s="26"/>
-      <c r="AU37" s="26"/>
-      <c r="AV37" s="26"/>
-      <c r="AW37" s="26"/>
-      <c r="AX37" s="26"/>
-      <c r="AY37" s="26"/>
-      <c r="AZ37" s="26"/>
-      <c r="BA37" s="26"/>
-      <c r="BB37" s="26"/>
-      <c r="BC37" s="26"/>
-      <c r="BD37" s="26"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="37"/>
+      <c r="AO37" s="37"/>
+      <c r="AP37" s="37"/>
+      <c r="AQ37" s="37"/>
+      <c r="AR37" s="37"/>
+      <c r="AS37" s="37"/>
+      <c r="AT37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AV37" s="37"/>
+      <c r="AW37" s="37"/>
+      <c r="AX37" s="37"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="37"/>
+      <c r="BA37" s="37"/>
+      <c r="BB37" s="37"/>
+      <c r="BC37" s="37"/>
+      <c r="BD37" s="37"/>
     </row>
     <row r="38" spans="1:188" ht="14.4" customHeight="1">
-      <c r="A38" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="33" t="s">
+      <c r="A38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="33" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="33" t="s">
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="27" t="s">
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="24"/>
-      <c r="AT38" s="24"/>
-      <c r="AU38" s="24"/>
-      <c r="AV38" s="24"/>
-      <c r="AW38" s="24"/>
-      <c r="AX38" s="24"/>
-      <c r="AY38" s="24"/>
-      <c r="AZ38" s="24"/>
-      <c r="BA38" s="24"/>
-      <c r="BB38" s="24"/>
-      <c r="BC38" s="24"/>
-      <c r="BD38" s="24"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
+      <c r="AR38" s="36"/>
+      <c r="AS38" s="36"/>
+      <c r="AT38" s="36"/>
+      <c r="AU38" s="36"/>
+      <c r="AV38" s="36"/>
+      <c r="AW38" s="36"/>
+      <c r="AX38" s="36"/>
+      <c r="AY38" s="36"/>
+      <c r="AZ38" s="36"/>
+      <c r="BA38" s="36"/>
+      <c r="BB38" s="36"/>
+      <c r="BC38" s="36"/>
+      <c r="BD38" s="36"/>
     </row>
     <row r="39" spans="1:188">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="31"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="26"/>
-      <c r="AN39" s="26"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="26"/>
-      <c r="AQ39" s="26"/>
-      <c r="AR39" s="26"/>
-      <c r="AS39" s="26"/>
-      <c r="AT39" s="26"/>
-      <c r="AU39" s="26"/>
-      <c r="AV39" s="26"/>
-      <c r="AW39" s="26"/>
-      <c r="AX39" s="26"/>
-      <c r="AY39" s="26"/>
-      <c r="AZ39" s="26"/>
-      <c r="BA39" s="26"/>
-      <c r="BB39" s="26"/>
-      <c r="BC39" s="26"/>
-      <c r="BD39" s="26"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
+      <c r="AK39" s="37"/>
+      <c r="AL39" s="37"/>
+      <c r="AM39" s="37"/>
+      <c r="AN39" s="37"/>
+      <c r="AO39" s="37"/>
+      <c r="AP39" s="37"/>
+      <c r="AQ39" s="37"/>
+      <c r="AR39" s="37"/>
+      <c r="AS39" s="37"/>
+      <c r="AT39" s="37"/>
+      <c r="AU39" s="37"/>
+      <c r="AV39" s="37"/>
+      <c r="AW39" s="37"/>
+      <c r="AX39" s="37"/>
+      <c r="AY39" s="37"/>
+      <c r="AZ39" s="37"/>
+      <c r="BA39" s="37"/>
+      <c r="BB39" s="37"/>
+      <c r="BC39" s="37"/>
+      <c r="BD39" s="37"/>
     </row>
     <row r="40" spans="1:188">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
-      <c r="AM40" s="26"/>
-      <c r="AN40" s="26"/>
-      <c r="AO40" s="26"/>
-      <c r="AP40" s="26"/>
-      <c r="AQ40" s="26"/>
-      <c r="AR40" s="26"/>
-      <c r="AS40" s="26"/>
-      <c r="AT40" s="26"/>
-      <c r="AU40" s="26"/>
-      <c r="AV40" s="26"/>
-      <c r="AW40" s="26"/>
-      <c r="AX40" s="26"/>
-      <c r="AY40" s="26"/>
-      <c r="AZ40" s="26"/>
-      <c r="BA40" s="26"/>
-      <c r="BB40" s="26"/>
-      <c r="BC40" s="26"/>
-      <c r="BD40" s="26"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
+      <c r="AK40" s="37"/>
+      <c r="AL40" s="37"/>
+      <c r="AM40" s="37"/>
+      <c r="AN40" s="37"/>
+      <c r="AO40" s="37"/>
+      <c r="AP40" s="37"/>
+      <c r="AQ40" s="37"/>
+      <c r="AR40" s="37"/>
+      <c r="AS40" s="37"/>
+      <c r="AT40" s="37"/>
+      <c r="AU40" s="37"/>
+      <c r="AV40" s="37"/>
+      <c r="AW40" s="37"/>
+      <c r="AX40" s="37"/>
+      <c r="AY40" s="37"/>
+      <c r="AZ40" s="37"/>
+      <c r="BA40" s="37"/>
+      <c r="BB40" s="37"/>
+      <c r="BC40" s="37"/>
+      <c r="BD40" s="37"/>
     </row>
     <row r="41" spans="1:188">
-      <c r="A41" s="108"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="116"/>
-      <c r="AI41" s="117"/>
-      <c r="AJ41" s="117"/>
-      <c r="AK41" s="117"/>
-      <c r="AL41" s="117"/>
-      <c r="AM41" s="117"/>
-      <c r="AN41" s="117"/>
-      <c r="AO41" s="117"/>
-      <c r="AP41" s="117"/>
-      <c r="AQ41" s="117"/>
-      <c r="AR41" s="117"/>
-      <c r="AS41" s="117"/>
-      <c r="AT41" s="117"/>
-      <c r="AU41" s="117"/>
-      <c r="AV41" s="117"/>
-      <c r="AW41" s="117"/>
-      <c r="AX41" s="117"/>
-      <c r="AY41" s="117"/>
-      <c r="AZ41" s="117"/>
-      <c r="BA41" s="117"/>
-      <c r="BB41" s="117"/>
-      <c r="BC41" s="117"/>
-      <c r="BD41" s="117"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+      <c r="AS41" s="39"/>
+      <c r="AT41" s="39"/>
+      <c r="AU41" s="39"/>
+      <c r="AV41" s="39"/>
+      <c r="AW41" s="39"/>
+      <c r="AX41" s="39"/>
+      <c r="AY41" s="39"/>
+      <c r="AZ41" s="39"/>
+      <c r="BA41" s="39"/>
+      <c r="BB41" s="39"/>
+      <c r="BC41" s="39"/>
+      <c r="BD41" s="39"/>
     </row>
     <row r="42" spans="1:188">
-      <c r="A42" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="33" t="s">
+      <c r="A42" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="33" t="s">
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="33" t="s">
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="27" t="s">
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28"/>
-      <c r="AK42" s="28"/>
-      <c r="AL42" s="28"/>
-      <c r="AM42" s="28"/>
-      <c r="AN42" s="28"/>
-      <c r="AO42" s="28"/>
-      <c r="AP42" s="28"/>
-      <c r="AQ42" s="28"/>
-      <c r="AR42" s="28"/>
-      <c r="AS42" s="28"/>
-      <c r="AT42" s="28"/>
-      <c r="AU42" s="28"/>
-      <c r="AV42" s="28"/>
-      <c r="AW42" s="28"/>
-      <c r="AX42" s="28"/>
-      <c r="AY42" s="28"/>
-      <c r="AZ42" s="28"/>
-      <c r="BA42" s="28"/>
-      <c r="BB42" s="28"/>
-      <c r="BC42" s="28"/>
-      <c r="BD42" s="28"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="17"/>
+      <c r="AO42" s="17"/>
+      <c r="AP42" s="17"/>
+      <c r="AQ42" s="17"/>
+      <c r="AR42" s="17"/>
+      <c r="AS42" s="17"/>
+      <c r="AT42" s="17"/>
+      <c r="AU42" s="17"/>
+      <c r="AV42" s="17"/>
+      <c r="AW42" s="17"/>
+      <c r="AX42" s="17"/>
+      <c r="AY42" s="17"/>
+      <c r="AZ42" s="17"/>
+      <c r="BA42" s="17"/>
+      <c r="BB42" s="17"/>
+      <c r="BC42" s="17"/>
+      <c r="BD42" s="17"/>
     </row>
     <row r="43" spans="1:188">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="32"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="31"/>
-      <c r="AL43" s="31"/>
-      <c r="AM43" s="31"/>
-      <c r="AN43" s="31"/>
-      <c r="AO43" s="31"/>
-      <c r="AP43" s="31"/>
-      <c r="AQ43" s="31"/>
-      <c r="AR43" s="31"/>
-      <c r="AS43" s="31"/>
-      <c r="AT43" s="31"/>
-      <c r="AU43" s="31"/>
-      <c r="AV43" s="31"/>
-      <c r="AW43" s="31"/>
-      <c r="AX43" s="31"/>
-      <c r="AY43" s="31"/>
-      <c r="AZ43" s="31"/>
-      <c r="BA43" s="31"/>
-      <c r="BB43" s="31"/>
-      <c r="BC43" s="31"/>
-      <c r="BD43" s="31"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="19"/>
+      <c r="AK43" s="19"/>
+      <c r="AL43" s="19"/>
+      <c r="AM43" s="19"/>
+      <c r="AN43" s="19"/>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="19"/>
+      <c r="AQ43" s="19"/>
+      <c r="AR43" s="19"/>
+      <c r="AS43" s="19"/>
+      <c r="AT43" s="19"/>
+      <c r="AU43" s="19"/>
+      <c r="AV43" s="19"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="19"/>
+      <c r="AY43" s="19"/>
+      <c r="AZ43" s="19"/>
+      <c r="BA43" s="19"/>
+      <c r="BB43" s="19"/>
+      <c r="BC43" s="19"/>
+      <c r="BD43" s="19"/>
     </row>
     <row r="44" spans="1:188">
-      <c r="A44" s="108"/>
-      <c r="B44" s="109"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="47"/>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="43"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="44"/>
-      <c r="AF44" s="44"/>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="43"/>
-      <c r="AI44" s="44"/>
-      <c r="AJ44" s="44"/>
-      <c r="AK44" s="44"/>
-      <c r="AL44" s="44"/>
-      <c r="AM44" s="44"/>
-      <c r="AN44" s="44"/>
-      <c r="AO44" s="44"/>
-      <c r="AP44" s="44"/>
-      <c r="AQ44" s="44"/>
-      <c r="AR44" s="44"/>
-      <c r="AS44" s="44"/>
-      <c r="AT44" s="44"/>
-      <c r="AU44" s="44"/>
-      <c r="AV44" s="44"/>
-      <c r="AW44" s="44"/>
-      <c r="AX44" s="44"/>
-      <c r="AY44" s="44"/>
-      <c r="AZ44" s="44"/>
-      <c r="BA44" s="44"/>
-      <c r="BB44" s="44"/>
-      <c r="BC44" s="44"/>
-      <c r="BD44" s="44"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="AM44" s="21"/>
+      <c r="AN44" s="21"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="21"/>
+      <c r="AQ44" s="21"/>
+      <c r="AR44" s="21"/>
+      <c r="AS44" s="21"/>
+      <c r="AT44" s="21"/>
+      <c r="AU44" s="21"/>
+      <c r="AV44" s="21"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="21"/>
+      <c r="AY44" s="21"/>
+      <c r="AZ44" s="21"/>
+      <c r="BA44" s="21"/>
+      <c r="BB44" s="21"/>
+      <c r="BC44" s="21"/>
+      <c r="BD44" s="21"/>
     </row>
     <row r="45" spans="1:188">
-      <c r="A45" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="14" t="s">
+      <c r="A45" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="41"/>
+      <c r="C45" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="11" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="14" t="s">
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="78"/>
+      <c r="S45" s="79"/>
+      <c r="T45" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="84" t="s">
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="AA45" s="85"/>
-      <c r="AB45" s="85"/>
-      <c r="AC45" s="85"/>
-      <c r="AD45" s="85"/>
-      <c r="AE45" s="85"/>
-      <c r="AF45" s="85"/>
-      <c r="AG45" s="86"/>
-      <c r="AH45" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI45" s="18"/>
-      <c r="AJ45" s="18"/>
-      <c r="AK45" s="18"/>
-      <c r="AL45" s="18"/>
-      <c r="AM45" s="18"/>
-      <c r="AN45" s="18"/>
-      <c r="AO45" s="18"/>
-      <c r="AP45" s="18"/>
-      <c r="AQ45" s="18"/>
-      <c r="AR45" s="18"/>
-      <c r="AS45" s="18"/>
-      <c r="AT45" s="18"/>
-      <c r="AU45" s="18"/>
-      <c r="AV45" s="18"/>
-      <c r="AW45" s="18"/>
-      <c r="AX45" s="18"/>
-      <c r="AY45" s="18"/>
-      <c r="AZ45" s="18"/>
-      <c r="BA45" s="18"/>
-      <c r="BB45" s="18"/>
-      <c r="BC45" s="18"/>
-      <c r="BD45" s="18"/>
+      <c r="AA45" s="81"/>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="81"/>
+      <c r="AD45" s="81"/>
+      <c r="AE45" s="81"/>
+      <c r="AF45" s="81"/>
+      <c r="AG45" s="82"/>
+      <c r="AH45" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI45" s="58"/>
+      <c r="AJ45" s="58"/>
+      <c r="AK45" s="58"/>
+      <c r="AL45" s="58"/>
+      <c r="AM45" s="58"/>
+      <c r="AN45" s="58"/>
+      <c r="AO45" s="58"/>
+      <c r="AP45" s="58"/>
+      <c r="AQ45" s="58"/>
+      <c r="AR45" s="58"/>
+      <c r="AS45" s="58"/>
+      <c r="AT45" s="58"/>
+      <c r="AU45" s="58"/>
+      <c r="AV45" s="58"/>
+      <c r="AW45" s="58"/>
+      <c r="AX45" s="58"/>
+      <c r="AY45" s="58"/>
+      <c r="AZ45" s="58"/>
+      <c r="BA45" s="58"/>
+      <c r="BB45" s="58"/>
+      <c r="BC45" s="58"/>
+      <c r="BD45" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="193">
-    <mergeCell ref="A42:B44"/>
-    <mergeCell ref="AH42:BD44"/>
-    <mergeCell ref="Z42:AG44"/>
-    <mergeCell ref="T42:Y44"/>
-    <mergeCell ref="K42:S44"/>
-    <mergeCell ref="C42:J44"/>
-    <mergeCell ref="A38:B41"/>
-    <mergeCell ref="AH38:BD41"/>
-    <mergeCell ref="Z38:AG41"/>
-    <mergeCell ref="T38:Y41"/>
-    <mergeCell ref="K38:S41"/>
-    <mergeCell ref="C38:J41"/>
+    <mergeCell ref="Z22:AG22"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="AH22:BD22"/>
+    <mergeCell ref="AH23:BD23"/>
+    <mergeCell ref="A35:B37"/>
+    <mergeCell ref="AH35:BD37"/>
+    <mergeCell ref="Z35:AG37"/>
+    <mergeCell ref="T35:Y37"/>
+    <mergeCell ref="K35:S37"/>
+    <mergeCell ref="C35:J37"/>
+    <mergeCell ref="AH30:BD31"/>
+    <mergeCell ref="Z30:AG31"/>
+    <mergeCell ref="T30:Y31"/>
+    <mergeCell ref="K30:S31"/>
+    <mergeCell ref="AH32:BD32"/>
+    <mergeCell ref="AH33:BD33"/>
+    <mergeCell ref="AH34:BD34"/>
+    <mergeCell ref="AH24:BD25"/>
+    <mergeCell ref="Z24:AG25"/>
+    <mergeCell ref="T24:Y25"/>
+    <mergeCell ref="K24:S25"/>
+    <mergeCell ref="C24:J25"/>
+    <mergeCell ref="AY2:BD2"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BD1"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="K7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="F4:BD5"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K17:S17"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="Z17:AG17"/>
+    <mergeCell ref="K12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="K18:S18"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="Z18:AG18"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="K13:S13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="K15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="K11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="K10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="K19:S19"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="Z23:AG23"/>
+    <mergeCell ref="K45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AG45"/>
+    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="K32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="Z32:AG32"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="Z19:AG19"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="Z21:AG21"/>
+    <mergeCell ref="K29:S29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="Z29:AG29"/>
+    <mergeCell ref="K20:S20"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="Z20:AG20"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="AH21:BD21"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="Z34:AG34"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="K33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="Z33:AG33"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="Z28:AG28"/>
+    <mergeCell ref="K28:S28"/>
+    <mergeCell ref="K27:S27"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="Z27:AG27"/>
+    <mergeCell ref="AH29:BD29"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="AH26:BD26"/>
+    <mergeCell ref="AH27:BD27"/>
+    <mergeCell ref="AH28:BD28"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="AH11:BD11"/>
+    <mergeCell ref="AH12:BD12"/>
+    <mergeCell ref="AH13:BD13"/>
+    <mergeCell ref="AH14:BD14"/>
+    <mergeCell ref="AH15:BD15"/>
+    <mergeCell ref="AH16:BD16"/>
+    <mergeCell ref="AH18:BD18"/>
+    <mergeCell ref="AH19:BD19"/>
+    <mergeCell ref="AH20:BD20"/>
+    <mergeCell ref="AH17:BD17"/>
+    <mergeCell ref="AH45:BD45"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="AH7:BD8"/>
+    <mergeCell ref="AH9:BD9"/>
+    <mergeCell ref="AH10:BD10"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C7:J8"/>
     <mergeCell ref="C9:J9"/>
@@ -9426,163 +9540,18 @@
     <mergeCell ref="C30:J31"/>
     <mergeCell ref="A30:B31"/>
     <mergeCell ref="A24:B25"/>
-    <mergeCell ref="AH45:BD45"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="AH7:BD8"/>
-    <mergeCell ref="AH9:BD9"/>
-    <mergeCell ref="AH10:BD10"/>
-    <mergeCell ref="AH11:BD11"/>
-    <mergeCell ref="AH12:BD12"/>
-    <mergeCell ref="AH13:BD13"/>
-    <mergeCell ref="AH14:BD14"/>
-    <mergeCell ref="AH15:BD15"/>
-    <mergeCell ref="AH16:BD16"/>
-    <mergeCell ref="AH18:BD18"/>
-    <mergeCell ref="AH19:BD19"/>
-    <mergeCell ref="AH20:BD20"/>
-    <mergeCell ref="AH17:BD17"/>
-    <mergeCell ref="AH21:BD21"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="Z34:AG34"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="K33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="Z33:AG33"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="Z28:AG28"/>
-    <mergeCell ref="K28:S28"/>
-    <mergeCell ref="K27:S27"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="Z27:AG27"/>
-    <mergeCell ref="AH29:BD29"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="AH26:BD26"/>
-    <mergeCell ref="AH27:BD27"/>
-    <mergeCell ref="AH28:BD28"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="K19:S19"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="Z23:AG23"/>
-    <mergeCell ref="K45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AG45"/>
-    <mergeCell ref="K34:S34"/>
-    <mergeCell ref="K32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="Z32:AG32"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="Z19:AG19"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="Z21:AG21"/>
-    <mergeCell ref="K29:S29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="Z29:AG29"/>
-    <mergeCell ref="K20:S20"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="Z20:AG20"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="K10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="K17:S17"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="Z17:AG17"/>
-    <mergeCell ref="K12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="K18:S18"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="Z18:AG18"/>
-    <mergeCell ref="K14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="K13:S13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="K15:S15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AY2:BD2"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BD1"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="K7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="F4:BD5"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="Z22:AG22"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="AH22:BD22"/>
-    <mergeCell ref="AH23:BD23"/>
-    <mergeCell ref="A35:B37"/>
-    <mergeCell ref="AH35:BD37"/>
-    <mergeCell ref="Z35:AG37"/>
-    <mergeCell ref="T35:Y37"/>
-    <mergeCell ref="K35:S37"/>
-    <mergeCell ref="C35:J37"/>
-    <mergeCell ref="AH30:BD31"/>
-    <mergeCell ref="Z30:AG31"/>
-    <mergeCell ref="T30:Y31"/>
-    <mergeCell ref="K30:S31"/>
-    <mergeCell ref="AH32:BD32"/>
-    <mergeCell ref="AH33:BD33"/>
-    <mergeCell ref="AH34:BD34"/>
-    <mergeCell ref="AH24:BD25"/>
-    <mergeCell ref="Z24:AG25"/>
-    <mergeCell ref="T24:Y25"/>
-    <mergeCell ref="K24:S25"/>
-    <mergeCell ref="C24:J25"/>
+    <mergeCell ref="A42:B44"/>
+    <mergeCell ref="AH42:BD44"/>
+    <mergeCell ref="Z42:AG44"/>
+    <mergeCell ref="T42:Y44"/>
+    <mergeCell ref="K42:S44"/>
+    <mergeCell ref="C42:J44"/>
+    <mergeCell ref="A38:B41"/>
+    <mergeCell ref="AH38:BD41"/>
+    <mergeCell ref="Z38:AG41"/>
+    <mergeCell ref="T38:Y41"/>
+    <mergeCell ref="K38:S41"/>
+    <mergeCell ref="C38:J41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -9661,7 +9630,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -9672,6 +9641,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -9803,22 +9787,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6750BA14-EF93-4A19-AEC6-7431BDBB93BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8A1FDC-951E-4F8A-8B1E-600169D502EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462924AE-F691-4F26-88D6-4B2DC7238578}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9834,21 +9820,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8A1FDC-951E-4F8A-8B1E-600169D502EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6750BA14-EF93-4A19-AEC6-7431BDBB93BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>